--- a/Dev/PythonDev/Work/Testing/UserEvaluation/Workplace Assistant Augmented Reality Survey (Responses).xlsx
+++ b/Dev/PythonDev/Work/Testing/UserEvaluation/Workplace Assistant Augmented Reality Survey (Responses).xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\UserEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9346C0C-C6C2-427C-834B-51D3942FC13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D947B17-0773-4197-B4C6-08DB93DD0AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17550" yWindow="3390" windowWidth="3360" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
   <si>
     <t>Timestamp</t>
   </si>
@@ -212,10 +211,52 @@
     <t>id</t>
   </si>
   <si>
-    <t>males</t>
-  </si>
-  <si>
-    <t>females</t>
+    <t>3D Map was confusing</t>
+  </si>
+  <si>
+    <t>Panning up and down was problematic</t>
+  </si>
+  <si>
+    <t>Very responsive</t>
+  </si>
+  <si>
+    <t>Difficult to read</t>
+  </si>
+  <si>
+    <t>Recommendation was confusing</t>
+  </si>
+  <si>
+    <t>Tablet screen was needed</t>
+  </si>
+  <si>
+    <t>Needed to be more informative</t>
+  </si>
+  <si>
+    <t>user Friendly</t>
+  </si>
+  <si>
+    <t>UI Theme was problematic</t>
+  </si>
+  <si>
+    <t>Found it confusing</t>
+  </si>
+  <si>
+    <t>Did not find it confusing</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Holographic Arrows instead of a map</t>
+  </si>
+  <si>
+    <t>Explain why three rows for recommendation</t>
+  </si>
+  <si>
+    <t>Make it generic for other companies</t>
+  </si>
+  <si>
+    <t>Better Map</t>
   </si>
 </sst>
 </file>
@@ -261,13 +302,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,11 +528,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -498,7 +540,7 @@
     <col min="2" max="25" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -557,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -613,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -669,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -728,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -784,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -843,7 +885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -899,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -955,7 +997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1011,7 +1053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1067,7 +1109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1126,7 +1168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1185,7 +1227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1244,7 +1286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1300,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1356,7 +1398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1415,21 +1457,212 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5">
-        <v>4</v>
-      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
